--- a/mnist experiment.xlsx
+++ b/mnist experiment.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\intellino_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EBF01A-110F-4C8B-B303-7A88D515A360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379552CD-1C4C-475C-ABAA-DB66B9688308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{361589A0-FDC0-48F1-AE27-58BB4D3F0B73}"/>
+    <workbookView xWindow="-18120" yWindow="-4920" windowWidth="18240" windowHeight="28320" xr2:uid="{361589A0-FDC0-48F1-AE27-58BB4D3F0B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,7 +476,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
